--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2100237.886046522</v>
+        <v>2145094.810120971</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17298407.14104214</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5676175.73672021</v>
+        <v>5755674.487632299</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,13 +671,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>76.89521083817689</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>173.3923768619266</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -801,7 +801,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>153.3187614035089</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -829,7 +829,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>92.65904534723448</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>8.129390960577833</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>332.4291174559667</v>
+        <v>106.8961444324692</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +987,7 @@
         <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>84.53123883647797</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
         <v>41.31829566194965</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>152.355512532834</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>50.72291944997038</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>168.1589972036696</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>325.5800738246913</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1148,10 +1148,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C11" t="n">
-        <v>162.7839175166981</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>152.5004364948347</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>30.1174008411109</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>16.05512456153178</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>281.6392935584445</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>250.9971266564427</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2011,7 +2011,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2053,7 +2053,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800047</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>103.3456594571957</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>136.1614161296816</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>24.62703520776731</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3092,7 +3092,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225723</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009267</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092789</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981679</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141558</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F35" t="n">
-        <v>423.1761338157523</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838368</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320839</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791326965</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359886937</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765598</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770213</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863797</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.394278563945</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X35" t="n">
-        <v>414.5384173073504</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842111</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526653</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4234729224753</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>163.8065913913605</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>167.6478022326381</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5273620187293</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5227407452986</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>29.7489530935188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.36072825393943</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.79102160254984</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.2363335358513</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.0080304781973</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602937</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>283.6733315691419</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407897</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999008</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009267</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092789</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981679</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141558</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157523</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838368</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320839</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791314843</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886937</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765598</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770213</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863797</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
-        <v>400.394278563945</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X38" t="n">
-        <v>414.5384173073504</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842111</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526653</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224753</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5376803609598</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452986</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873972</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825393943</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2363335358513</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781973</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602937</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691419</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.8935188904394</v>
+        <v>148.8597651552994</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407897</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999008</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009267</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092789</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981679</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141558</v>
+        <v>429.4369973932883</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1761338157523</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838368</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320839</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791314762</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886937</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765598</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770213</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863797</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>400.394278563945</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>293.3710601222699</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842111</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526653</v>
+        <v>166.4767360333476</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224753</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913605</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326381</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187293</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452986</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873972</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825393943</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358513</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>111.2968076963295</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602937</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691419</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.8935188904394</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407897</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009267</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092789</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981679</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141558</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157523</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838368</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320839</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791314762</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359886937</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765598</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770213</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863797</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.394278563945</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>414.5384173073504</v>
+        <v>414.9510387864835</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.8135104124979</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526653</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224753</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913605</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326381</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187293</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452986</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873972</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825393943</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160254984</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781973</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602937</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>63.67456822067484</v>
+        <v>5.990622819018522</v>
       </c>
       <c r="W46" t="n">
-        <v>268.8935188904394</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407897</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999008</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554.8743158913576</v>
+        <v>1311.887257547977</v>
       </c>
       <c r="C2" t="n">
-        <v>520.7722471151849</v>
+        <v>883.3055832852453</v>
       </c>
       <c r="D2" t="n">
-        <v>488.9028663300335</v>
+        <v>454.7239090225137</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>424.9895682212129</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>401.1625426708247</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4358,22 +4358,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>771.6250763881362</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W2" t="n">
-        <v>596.4812613760892</v>
+        <v>1353.494203032709</v>
       </c>
       <c r="X2" t="n">
-        <v>581.3792019958039</v>
+        <v>1338.392143652423</v>
       </c>
       <c r="Y2" t="n">
-        <v>577.1334823358613</v>
+        <v>1334.146423992481</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>858.7506050139928</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C4" t="n">
-        <v>686.1888934972177</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D4" t="n">
-        <v>520.3109006987404</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>350.5528969494776</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
         <v>173.8458429112338</v>
@@ -4486,25 +4486,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4522,16 +4522,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1603.58843478018</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W4" t="n">
-        <v>1331.562030366472</v>
+        <v>1688.971924059632</v>
       </c>
       <c r="X4" t="n">
-        <v>1086.170275699885</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y4" t="n">
-        <v>858.7506050139928</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>645.2368685701944</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.974446717864</v>
+        <v>537.2609651030538</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>505.3915843179023</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>475.6572435166015</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>451.8302179662133</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>674.533170634257</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1298.633954679037</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1298.633954679037</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1298.633954679037</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1351.019759470483</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1975.120543515263</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.397026790874</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1899.780076724701</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1494.924622135734</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1479.822562755449</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1071.536439055102</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326468</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993476</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>187.8381257054811</v>
+        <v>787.1922181889424</v>
       </c>
       <c r="C7" t="n">
-        <v>187.8381257054811</v>
+        <v>614.6305066721674</v>
       </c>
       <c r="D7" t="n">
-        <v>187.8381257054811</v>
+        <v>448.75251387369</v>
       </c>
       <c r="E7" t="n">
-        <v>187.8381257054811</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>743.4007229285738</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.20150817923</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477226</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2095.080693055681</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1816.647692308787</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1529.692184179217</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1257.665779765509</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1206.430507593821</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.8381257054811</v>
+        <v>979.0108369079296</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>1620.659365270951</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>1291.790603831868</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>863.2089295691367</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1294.102365436318</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1528.02936532736</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>2649.897996842637</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2249.59976876938</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.171569257564</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.261784432008</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.487039590304</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6196099995112</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2217786227752</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>97.09162406599143</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.67483469313143</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9295221460493</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3421.519446927393</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4118.088883944921</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4664.587669903515</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4833.741734656572</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4750.089860840409</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4530.022633713447</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4270.800331030464</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3908.18338096429</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3503.327926375323</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3084.185462954634</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2675.899339254287</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.8465796844242</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.3901185210665</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2998296676197</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.1794149945734</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7955766107351</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.67483469313143</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.738507853589</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.2968328198014</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.2968328198014</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>447.2968328198014</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>447.2968328198014</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>447.2968328198014</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>447.2968328198014</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.91459617194</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6362599849666</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.1504807641874</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.1708717700624</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6091602532875</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7311674548102</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>438.9731637055476</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>262.2661096673038</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>96.67483469313143</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>96.67483469313143</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.67483469313143</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.2545198578212</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0129744289568</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2228561969179</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.965526535475</v>
+        <v>1783.551532113125</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.334444595931</v>
+        <v>2697.502628878952</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.095275553246</v>
+        <v>2697.502628878952</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.215829131701</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.782828384807</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.827320255237</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.800915841529</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.409161174941</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.98949048905</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.897252701281</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.754779884704</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.844995059148</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.070250217444</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2028206266514</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8049892499151</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.67483469313143</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.67483469313143</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9295221460493</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3289.779009111524</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4118.088883944921</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4664.587669903515</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4833.741734656572</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4803.320117645349</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.320117645349</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.097814962364</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.480864896191</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.625410307224</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.482946886535</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.196823186188</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8465796844242</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.3901185210665</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.2998296676197</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.1794149945734</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7955766107351</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.67483469313143</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.738507853589</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.2968328198014</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.91459617194</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6362599849666</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1504807641874</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.073046079688</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C16" t="n">
-        <v>914.511334562913</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D16" t="n">
-        <v>748.6333417644357</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E16" t="n">
-        <v>578.875338015173</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F16" t="n">
-        <v>402.1682839769293</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>236.5770090027569</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>96.67483469313143</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.67483469313143</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.2545198578213</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0129744289569</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.222856196918</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.965526535476</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.093075893928</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.213629472383</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U16" t="n">
-        <v>2308.213629472383</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V16" t="n">
-        <v>2023.729494564863</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.703090151155</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X16" t="n">
-        <v>1506.311335484567</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.891664798675</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.81182309218</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.669350275603</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.759565450048</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.984820608343</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F17" t="n">
-        <v>790.1173910175507</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.7195596408146</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.58940508403057</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>99.17261571117058</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>534.4273031640885</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.777595122267</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.837561375126</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.837561375126</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.837561375126</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3414.668060013482</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4242.977934846878</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4789.476720805473</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4958.630785558529</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4874.978911742366</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4654.911684615405</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4395.689381932421</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4033.072431866248</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3779.539980698124</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.397517277434</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2952.111393577088</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>605.3443607024634</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.8878995391057</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.7976106856589</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.6771960126126</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>226.2933576287742</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.9082678949581</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>99.17261571117058</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>125.2362888716282</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.7946138378405</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1104.500660463564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1104.500660463564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1104.500660463564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1104.500660463564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1104.500660463564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.500660463564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1645.23959909564</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1762.412377189979</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.956939638362</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.778295968964</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1392.441748968932</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1193.324231030932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1008.001476764126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>853.1340410030058</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.6482617822265</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.6686527881018</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>777.1069412713268</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>611.2289484728495</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>441.4709447235869</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>264.7638906853429</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>99.17261571117058</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>99.17261571117058</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>99.17261571117058</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.7523008758603</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>460.5107554469959</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.7206372149569</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1338.20450439587</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1780.463307553515</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2200.132556779296</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.639450749638</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.83222561397</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.83222561397</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.590856911967</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.713610149741</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2173.280609402846</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1886.325101273277</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1614.298696859568</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.906942192981</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1141.487271507089</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,19 +5759,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
@@ -5887,13 +5887,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5908,13 +5908,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5935,19 +5935,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
         <v>1371.99516675259</v>
@@ -5969,19 +5969,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6157,7 +6157,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2422.1422975022</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2143.709296755305</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="26">
@@ -6239,13 +6239,13 @@
         <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883923</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716173</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
         <v>614.3171730324584</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.57329640738</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,31 +6710,31 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
@@ -6743,7 +6743,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449521</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707797</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.854933458236</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.12925001452</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561825</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.27829909298</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>791.8276588750487</v>
+        <v>793.205615577161</v>
       </c>
       <c r="G35" t="n">
-        <v>390.846616871174</v>
+        <v>391.8077842004247</v>
       </c>
       <c r="H35" t="n">
-        <v>102.1332516872508</v>
+        <v>102.677629643641</v>
       </c>
       <c r="I35" t="n">
-        <v>102.1332516872508</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J35" t="n">
-        <v>537.3879391401687</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M35" t="n">
-        <v>2582.520192247189</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N35" t="n">
-        <v>2582.520192247189</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O35" t="n">
-        <v>3562.699858817495</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P35" t="n">
-        <v>4391.009733650892</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q35" t="n">
-        <v>4937.508519609486</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362542</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.42749991924</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.77706216514</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855017</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.771388161705</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945598</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897769</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570283</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.3049966785436</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.8485355151859</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.7582466617392</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6378319886929</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.2539936048545</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8689038710384</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H36" t="n">
-        <v>102.1332516872508</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I36" t="n">
-        <v>128.1969248477085</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.7552498139208</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.461296439644</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.461296439644</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.461296439644</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.461296439644</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.461296439644</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.461296439644</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.738931945044</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.094676979086</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.6088977583067</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1068.837949321553</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>896.693027177639</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>731.2318237520223</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>561.8906093756201</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>385.6003447102369</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>220.4258591089251</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.3764115397149</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I37" t="n">
-        <v>102.1332516872508</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J37" t="n">
-        <v>189.1214321162814</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>464.2883819517576</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
-        <v>882.9067589840593</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.799121429313</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851298</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341421</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.459553576103</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.060823704775</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2701.059791783008</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2542.235212453865</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2296.772555405181</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U37" t="n">
-        <v>2018.756344031147</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V37" t="n">
-        <v>1732.217625274438</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
-        <v>1732.217625274438</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1487.242659980711</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1260.23977866768</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.854933458235</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014519</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561824</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.27829909298</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750484</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>390.846616871173</v>
+        <v>391.8077842004238</v>
       </c>
       <c r="H38" t="n">
-        <v>102.1332516872503</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
-        <v>102.1332516872508</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401687</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.798197351206</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247189</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817495</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650892</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609486</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362542</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.42749991924</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.77706216514</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855016</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.771388161704</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945598</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897769</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570283</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785436</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151859</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617392</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886929</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048545</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710384</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.1332516872508</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477085</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.7552498139208</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.461296439644</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.461296439644</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.461296439644</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.461296439644</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.461296439644</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439644</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945044</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.094676979086</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.6088977583067</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>818.2293662024731</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>646.084444058559</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>646.084444058559</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>495.0362820777916</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>495.0362820777916</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>329.8617964764798</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.3764115397149</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I40" t="n">
-        <v>102.1332516872508</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1214321162812</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517575</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840593</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429313</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851298</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341421</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576103</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704776</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704776</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2563.236244375633</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2317.773587326948</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2039.757375952914</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1753.218657196205</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1481.609042155358</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1236.634076861631</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1009.6311955486</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2523.357152440197</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2085.631468996481</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1650.138473543786</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.780518074942</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>789.3298778570104</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>388.3488358531349</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H41" t="n">
-        <v>99.6354706692117</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>99.6354706692117</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>534.8901581221296</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1369.240450080307</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2444.300416333167</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2444.300416333167</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2457.631141345231</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3437.810807915538</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4266.120682748933</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4812.619468707529</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4981.773533460585</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4898.538449017283</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.888011263182</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.08249795306</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4057.882337259747</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3653.443672043641</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3357.10926787973</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2949.239933552244</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>605.8072156605045</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>499.3507544971468</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>404.2604656437001</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.1400509706538</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>226.7562125868154</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>141.3711228529992</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>99.6354706692117</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>125.6991438296693</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>450.2574687958816</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1104.963515421605</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1104.963515421605</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1104.963515421605</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1104.963515421605</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1104.963515421605</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1104.963515421605</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1645.702454053681</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1762.875232148021</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1699.419794596404</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1569.241150927005</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1392.904603926974</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1193.787085988973</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1008.464331722167</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>853.5968959610469</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.1111167402677</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1175.776105671069</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C43" t="n">
-        <v>1003.631183527155</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D43" t="n">
-        <v>838.1699801015378</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E43" t="n">
-        <v>668.8287657251357</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F43" t="n">
-        <v>492.5385010597524</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
-        <v>327.3640154584407</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>187.8786305216758</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>99.6354706692117</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.6236510982422</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7906009337185</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>880.4089779660202</v>
+        <v>881.8088617745623</v>
       </c>
       <c r="M43" t="n">
-        <v>1340.301340411274</v>
+        <v>1341.292728955475</v>
       </c>
       <c r="N43" t="n">
-        <v>1782.968638833259</v>
+        <v>1783.55153211312</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.046383323382</v>
+        <v>2203.220781338901</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.961772558064</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q43" t="n">
-        <v>2719.563042686737</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="R43" t="n">
-        <v>2719.563042686737</v>
+        <v>2697.502628878948</v>
       </c>
       <c r="S43" t="n">
-        <v>2560.738463357593</v>
+        <v>2538.261260176944</v>
       </c>
       <c r="T43" t="n">
-        <v>2448.317445482513</v>
+        <v>2292.381813755399</v>
       </c>
       <c r="U43" t="n">
-        <v>2170.301234108479</v>
+        <v>2013.948813008505</v>
       </c>
       <c r="V43" t="n">
-        <v>1883.76251535177</v>
+        <v>1726.993304878935</v>
       </c>
       <c r="W43" t="n">
-        <v>1612.152900310922</v>
+        <v>1454.966900465227</v>
       </c>
       <c r="X43" t="n">
-        <v>1367.177935017196</v>
+        <v>1209.575145798639</v>
       </c>
       <c r="Y43" t="n">
-        <v>1367.177935017196</v>
+        <v>1209.575145798639</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2520.268927880588</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.543244436872</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1647.050248984177</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1213.692293515332</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>786.2416532974007</v>
+        <v>793.2056155771598</v>
       </c>
       <c r="G44" t="n">
-        <v>385.2606112935252</v>
+        <v>391.8077842004237</v>
       </c>
       <c r="H44" t="n">
-        <v>96.54724610960207</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>96.54724610960265</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>531.8019335625205</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.152225520698</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.212191773558</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.212191773558</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N44" t="n">
-        <v>2472.373978117836</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3452.553644688142</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>4280.863519521538</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>4827.362305480133</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>4827.362305480133</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>4744.127221036831</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>4524.47678328273</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>4265.671269972608</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3903.471109279294</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W44" t="n">
-        <v>3499.032444063188</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X44" t="n">
-        <v>3080.306770015359</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.151708992635</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.7189911008954</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.2625299375377</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.172241084091</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.0518264110447</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.6679880272063</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.2828982933902</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>96.54724610960265</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>122.6109192700603</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.1692442362726</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.614229494072</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.787007588412</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.331570036795</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.152926367396</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1389.816379367365</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.698861429364</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.376107162558</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.5086714014378</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.0228921806586</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1172.68788111146</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>1000.542958967545</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>835.0817555419287</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>665.7405411655266</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>489.4502765001433</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>324.2757908988316</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>184.7904059620667</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>96.54724610960265</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>183.5354265386332</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.7023763741094</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>877.3207534064112</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1337.213115851665</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1779.88041427365</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2199.958158763772</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2547.873547998454</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2716.474818127127</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2695.47378620536</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.47378620536</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2450.011129156675</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2171.994917782642</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>2107.677172105192</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W46" t="n">
-        <v>1836.067557064344</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X46" t="n">
-        <v>1591.092591770617</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>1364.089710457586</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>52.91495433479463</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741799</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238416</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8699,13 +8699,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>703.6054919368967</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>857.0093219741798</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,10 +9173,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>980.6368673114712</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>137.0929241373565</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N38" t="n">
-        <v>137.0929241373565</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>13.46537880006508</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>31.47655186290694</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>270.9771305717128</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>90.92021546249455</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>52.69795423689046</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>227.3655273957975</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>2.446659489829308</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>149.8097733866343</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,10 +24412,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>107.2592358276476</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627261</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>108.3415779938784</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>268.8935188904394</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913605</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>18.11012187167837</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187293</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160254984</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>121.1673571850805</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>23.4236964984496</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160254984</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>131.7112227818678</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999008</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>270.9771305717132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.2363335358513</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>219.998763348467</v>
+        <v>278.0953302292553</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>480253.8082882519</v>
+        <v>488708.6899037688</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>480253.8082882519</v>
+        <v>490231.0099343858</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481049.3532321117</v>
+        <v>501584.4392355897</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481049.3532321115</v>
+        <v>501584.4392355896</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490231.6118801389</v>
+        <v>501584.4392355896</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>501584.4392355895</v>
+        <v>501584.4392355896</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>501584.4392355896</v>
+        <v>501584.4392355895</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>501734.8513248842</v>
+        <v>501584.4392355896</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>501734.851324884</v>
+        <v>501584.4392355896</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>492552.5926768567</v>
+        <v>501584.4392355896</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481199.7653214061</v>
+        <v>501584.4392355896</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013677</v>
       </c>
       <c r="C2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013677</v>
       </c>
       <c r="D2" t="n">
         <v>482532.5879013676</v>
       </c>
       <c r="E2" t="n">
-        <v>454759.0240894595</v>
+        <v>474171.825723617</v>
       </c>
       <c r="F2" t="n">
-        <v>454759.0240894594</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="G2" t="n">
-        <v>463439.4535581985</v>
+        <v>474171.825723617</v>
       </c>
       <c r="H2" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.825723617</v>
       </c>
       <c r="I2" t="n">
         <v>474171.825723617</v>
@@ -26338,22 +26338,22 @@
         <v>474171.825723617</v>
       </c>
       <c r="K2" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.825723617</v>
       </c>
       <c r="L2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="M2" t="n">
-        <v>474384.3098086659</v>
+        <v>474171.825723617</v>
       </c>
       <c r="N2" t="n">
-        <v>474384.3098086659</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="O2" t="n">
-        <v>465703.8803399269</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="P2" t="n">
-        <v>454971.5081745083</v>
+        <v>474171.8257236169</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501646</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998249</v>
       </c>
       <c r="E3" t="n">
-        <v>234126.8263659348</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8557.553879115771</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10415.38475254439</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877275</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622083</v>
       </c>
       <c r="M3" t="n">
-        <v>195343.3712995833</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,19 +26418,19 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154981.0317940153</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>52328.04016039197</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="F4" t="n">
-        <v>52328.04016039197</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="G4" t="n">
-        <v>53326.87655019009</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
         <v>54561.82510962276</v>
@@ -26439,25 +26439,25 @@
         <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962272</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>54927.77664666068</v>
+        <v>54561.82510962266</v>
       </c>
       <c r="N4" t="n">
-        <v>54927.7766466607</v>
+        <v>54561.82510962271</v>
       </c>
       <c r="O4" t="n">
-        <v>53928.94025686256</v>
+        <v>54561.82510962264</v>
       </c>
       <c r="P4" t="n">
-        <v>52693.9916974299</v>
+        <v>54561.82510962267</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800263</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73472.87436677988</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73472.87436677988</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>75371.18794048965</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.95995743979</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743979</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>75757.64638373004</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73410.59571842717</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>87219.81945327093</v>
       </c>
       <c r="C6" t="n">
-        <v>229411.1201129808</v>
+        <v>189007.5744043333</v>
       </c>
       <c r="D6" t="n">
-        <v>229411.1201129808</v>
+        <v>248782.2735438383</v>
       </c>
       <c r="E6" t="n">
-        <v>94831.28319635289</v>
+        <v>159513.4284477694</v>
       </c>
       <c r="F6" t="n">
-        <v>328958.1095622876</v>
+        <v>341868.537668819</v>
       </c>
       <c r="G6" t="n">
-        <v>326183.835188403</v>
+        <v>341868.5376688191</v>
       </c>
       <c r="H6" t="n">
-        <v>331476.3772556573</v>
+        <v>341868.537668819</v>
       </c>
       <c r="I6" t="n">
-        <v>341891.7620082017</v>
+        <v>341868.5376688191</v>
       </c>
       <c r="J6" t="n">
-        <v>230877.2966632115</v>
+        <v>230854.0723238289</v>
       </c>
       <c r="K6" t="n">
-        <v>341891.7620082018</v>
+        <v>288822.6830300463</v>
       </c>
       <c r="L6" t="n">
-        <v>341891.7620082018</v>
+        <v>332476.235942197</v>
       </c>
       <c r="M6" t="n">
-        <v>146457.2019049822</v>
+        <v>189668.3667308316</v>
       </c>
       <c r="N6" t="n">
-        <v>341800.5732045654</v>
+        <v>341868.5376688192</v>
       </c>
       <c r="O6" t="n">
-        <v>336017.2936993343</v>
+        <v>341868.5376688191</v>
       </c>
       <c r="P6" t="n">
-        <v>328866.9207586512</v>
+        <v>341868.5376688191</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1208.435433664143</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1208.435433664143</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1239.657696389632</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090636</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090636</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>1245.443383365146</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1206.840576370033</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483601</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939248</v>
       </c>
       <c r="E4" t="n">
-        <v>784.1395761440385</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>31.22226272548943</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38.60280699511281</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483601</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939248</v>
       </c>
       <c r="M4" t="n">
-        <v>782.5447188499288</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483601</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939248</v>
       </c>
       <c r="M4" t="n">
-        <v>784.1395761440385</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>31.22226272548943</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>38.60280699511281</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,10 +27379,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>320.4886422247919</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>227.4145231811504</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>191.4269077010393</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>261.1767494089935</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>326.8649036559417</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>101.3319306324442</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.58447096502732</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>192.2149176699513</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>253.8775775763891</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>105.9706131526086</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>-7.710247737347118e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791319916</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791319916</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791319916</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791319916</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791319916</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791319916</v>
+        <v>-8.671097134934407e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791319916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791319917</v>
+        <v>-2.447246968396189e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791319917</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791319917</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791319917</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791319917</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791319917</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791319917</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791319917</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791319917</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791319917</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791319917</v>
+        <v>-8.671097134934407e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791319917</v>
+        <v>-8.671097134934407e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791319917</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791319917</v>
+        <v>-3.838681988330164e-12</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791319917</v>
+        <v>-1.099741550311978e-12</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791319917</v>
+        <v>-7.866591247738446e-14</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791319917</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>52.91495433479463</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741799</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,10 +35033,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238416</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35419,13 +35419,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>703.6054919368967</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645597</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35656,10 +35656,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>857.0093219741798</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35814,7 +35814,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512943</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,10 +35893,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>980.6368673114712</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908051</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36607,7 +36607,7 @@
         <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>137.0929241373565</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37382,10 +37382,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821265</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.9464139752286</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871734</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
-        <v>464.5377398436907</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747326</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.3209540304265</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956388</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612856</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,22 +37537,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>5.940803404769213e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N38" t="n">
-        <v>137.0929241373565</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37619,10 +37619,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821251</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.9464139752286</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871735</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5377398436907</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747326</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304265</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956392</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612861</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>13.46537880006508</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821265</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9464139752286</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871735</v>
+        <v>422.4342240080376</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5377398436906</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747326</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304267</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956392</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612861</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>5.940803404769213e-13</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>31.47655186290694</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821267</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.9464139752286</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871735</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5377398436906</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747326</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3209540304265</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956388</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612856</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
